--- a/tool/src/main/resources/xml/TableModel.xlsx
+++ b/tool/src/main/resources/xml/TableModel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,15 +40,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人数</t>
+    <t>seatNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exCardNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外牌数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -409,7 +425,7 @@
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,10 +433,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -428,10 +450,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -441,8 +469,14 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -450,6 +484,12 @@
         <v>1</v>
       </c>
       <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
     </row>
